--- a/img/Книга1.xlsx
+++ b/img/Книга1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>x</t>
   </si>
@@ -294,6 +295,15 @@
   </si>
   <si>
     <t>[ 25, 16, 30, 23 ]</t>
+  </si>
+  <si>
+    <t>grid size</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>zoom</t>
   </si>
 </sst>
 </file>
@@ -614,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -987,4 +997,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>